--- a/Dipper/Dipper/bin/Template.xlsx
+++ b/Dipper/Dipper/bin/Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Projects\Dipper\Dipper\Dipper\Dipper\bin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17893F8C-1ADD-4661-9710-61AB2B372DD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF8A41D-F211-4522-8C95-DE852B440643}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{0603CCC2-88E6-4111-951C-313D41E47EF8}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
   <si>
     <t>Понедельник</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Пятница</t>
   </si>
   <si>
-    <t>1 курс</t>
-  </si>
-  <si>
     <t>ПКС</t>
   </si>
   <si>
@@ -70,15 +67,6 @@
   </si>
   <si>
     <t>ПД</t>
-  </si>
-  <si>
-    <t>2 курс</t>
-  </si>
-  <si>
-    <t>3 курс</t>
-  </si>
-  <si>
-    <t>4 курс</t>
   </si>
 </sst>
 </file>
@@ -122,8 +110,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -444,7 +435,7 @@
   <dimension ref="A1:AA42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y5" sqref="Y5"/>
+      <selection activeCell="X1" sqref="X1:AA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,119 +444,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
+      <c r="C1" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2">
+        <v>2</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2">
+        <v>3</v>
+      </c>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
       <c r="J2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" t="s">
         <v>6</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>7</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>8</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>9</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>10</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>11</v>
       </c>
-      <c r="P2" t="s">
-        <v>12</v>
-      </c>
       <c r="Q2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R2" t="s">
         <v>6</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>7</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>8</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>9</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>10</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>11</v>
       </c>
-      <c r="W2" t="s">
-        <v>12</v>
-      </c>
       <c r="X2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y2" t="s">
         <v>6</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>7</v>
       </c>
-      <c r="Z2" t="s">
-        <v>8</v>
-      </c>
       <c r="AA2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3">
@@ -573,246 +564,231 @@
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+      <c r="A4" s="2"/>
       <c r="B4">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+      <c r="A5" s="2"/>
       <c r="B5">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+      <c r="A6" s="2"/>
       <c r="B6">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+      <c r="A7" s="2"/>
       <c r="B7">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+      <c r="A8" s="2"/>
       <c r="B8">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+      <c r="A9" s="2"/>
       <c r="B9">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+      <c r="A10" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="B10">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2"/>
+      <c r="B11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17">
         <v>1</v>
       </c>
-      <c r="B11">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32">
         <v>2</v>
       </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37">
         <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37">
-        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38">
-        <v>4</v>
-      </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39">
-        <v>5</v>
-      </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40">
-        <v>6</v>
-      </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41">
-        <v>7</v>
-      </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42">
-        <v>8</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -820,11 +796,11 @@
     <mergeCell ref="J1:P1"/>
     <mergeCell ref="Q1:W1"/>
     <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="A11:A18"/>
-    <mergeCell ref="A19:A26"/>
-    <mergeCell ref="A27:A34"/>
-    <mergeCell ref="A35:A42"/>
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="A17:A23"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="A31:A37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
